--- a/average_sale_by_category_and_status.xlsx
+++ b/average_sale_by_category_and_status.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,11 +458,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Cancelled</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>480.8051948051948</v>
+        <v>448.172337236534</v>
       </c>
     </row>
     <row r="3">
@@ -473,11 +473,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pending - Waiting for Pick Up</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>491.4722222222222</v>
+        <v>465.624</v>
       </c>
     </row>
     <row r="4">
@@ -488,11 +488,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Shipped - Delivered to Buyer</t>
+          <t>Pending - Waiting for Pick Up</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>452.7020373514431</v>
+        <v>484.7397260273972</v>
       </c>
     </row>
     <row r="5">
@@ -503,11 +503,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Shipped - Lost in Transit</t>
+          <t>Shipped</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>499</v>
+        <v>459.5158045977012</v>
       </c>
     </row>
     <row r="6">
@@ -518,11 +518,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Shipped - Out for Delivery</t>
+          <t>Shipped - Delivered to Buyer</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>521.8</v>
+        <v>452.2517192651908</v>
       </c>
     </row>
     <row r="7">
@@ -533,11 +533,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Shipped - Picked Up</t>
+          <t>Shipped - Lost in Transit</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>486.0469798657718</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8">
@@ -548,11 +548,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Shipped - Rejected by Buyer</t>
+          <t>Shipped - Out for Delivery</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>544.5</v>
+        <v>521.8</v>
       </c>
     </row>
     <row r="9">
@@ -563,11 +563,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Shipped - Returned to Seller</t>
+          <t>Shipped - Picked Up</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>459.0055096418733</v>
+        <v>484.4214046822743</v>
       </c>
     </row>
     <row r="10">
@@ -578,57 +578,55 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Shipped - Returning to Seller</t>
+          <t>Shipped - Rejected by Buyer</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>475.3142857142857</v>
+        <v>544.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bottom</t>
+          <t>Blouse</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pending - Waiting for Pick Up</t>
+          <t>Shipped - Returned to Seller</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>301</v>
+        <v>458.8803301237964</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bottom</t>
+          <t>Blouse</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Shipped - Delivered to Buyer</t>
+          <t>Shipped - Returning to Seller</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>352.2826086956522</v>
+        <v>475.3142857142857</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bottom</t>
+          <t>Blouse</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Shipped - Picked Up</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>287.1</v>
-      </c>
+          <t>Shipping</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -638,11 +636,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Shipped - Returned to Seller</t>
+          <t>Cancelled</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>292.2</v>
+        <v>371.0970731707317</v>
       </c>
     </row>
     <row r="15">
@@ -653,101 +651,101 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Shipped - Returning to Seller</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dress</t>
+          <t>Bottom</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Pending - Waiting for Pick Up</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>722.1818181818181</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Dress</t>
+          <t>Bottom</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Pending - Waiting for Pick Up</t>
+          <t>Shipped</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>767.5316455696203</v>
+        <v>368.262443438914</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Dress</t>
+          <t>Bottom</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Shipped - Damaged</t>
+          <t>Shipped - Delivered to Buyer</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1136</v>
+        <v>349.7482014388489</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Dress</t>
+          <t>Bottom</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Shipped - Delivered to Buyer</t>
+          <t>Shipped - Picked Up</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>744.9010847582276</v>
+        <v>287.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Dress</t>
+          <t>Bottom</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Shipped - Lost in Transit</t>
+          <t>Shipped - Returned to Seller</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>292.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Dress</t>
+          <t>Bottom</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Shipped - Out for Delivery</t>
+          <t>Shipped - Returning to Seller</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>765</v>
+        <v>518</v>
       </c>
     </row>
     <row r="22">
@@ -758,11 +756,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Shipped - Picked Up</t>
+          <t>Cancelled</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>724.2063492063492</v>
+        <v>752.7653188507359</v>
       </c>
     </row>
     <row r="23">
@@ -773,11 +771,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Shipped - Rejected by Buyer</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>899</v>
+        <v>744.8181818181819</v>
       </c>
     </row>
     <row r="24">
@@ -788,11 +786,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Shipped - Returned to Seller</t>
+          <t>Pending - Waiting for Pick Up</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>732.2613981762918</v>
+        <v>767.5316455696203</v>
       </c>
     </row>
     <row r="25">
@@ -803,267 +801,488 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Shipped - Returning to Seller</t>
+          <t>Shipped</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>782.6428571428571</v>
+        <v>774.6046734571599</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Set</t>
+          <t>Dress</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Shipped - Damaged</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>862.5697674418604</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Set</t>
+          <t>Dress</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Pending - Waiting for Pick Up</t>
+          <t>Shipped - Delivered to Buyer</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>791.1203703703703</v>
+        <v>744.078589790672</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Set</t>
+          <t>Dress</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Shipped - Delivered to Buyer</t>
+          <t>Shipped - Lost in Transit</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>827.9541647058824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Set</t>
+          <t>Dress</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Shipped - Lost in Transit</t>
+          <t>Shipped - Out for Delivery</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>499.5</v>
+        <v>765</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Set</t>
+          <t>Dress</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Shipped - Out for Delivery</t>
+          <t>Shipped - Picked Up</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>908.1052631578947</v>
+        <v>724.2063492063492</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Set</t>
+          <t>Dress</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Shipped - Picked Up</t>
+          <t>Shipped - Rejected by Buyer</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>848.4123456790123</v>
+        <v>899</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Set</t>
+          <t>Dress</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Shipped - Rejected by Buyer</t>
+          <t>Shipped - Returned to Seller</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>748.6666666666666</v>
+        <v>730.0424242424242</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Set</t>
+          <t>Dress</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Shipped - Returned to Seller</t>
+          <t>Shipped - Returning to Seller</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>824.9842726081258</v>
+        <v>782.6428571428571</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Set</t>
+          <t>Scarf</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Shipped - Returning to Seller</t>
+          <t>Shipped</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>875.8356164383562</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Top</t>
+          <t>Set</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Cancelled</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>469.5384615384615</v>
+        <v>826.9709526077637</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Top</t>
+          <t>Set</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Pending - Waiting for Pick Up</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>530.2105263157895</v>
+        <v>837.6294820717131</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Top</t>
+          <t>Set</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Shipped - Delivered to Buyer</t>
+          <t>Pending - Waiting for Pick Up</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>494.3897863470557</v>
+        <v>791.1203703703703</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Top</t>
+          <t>Set</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Shipped - Out for Delivery</t>
+          <t>Shipped</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>503.6</v>
+        <v>836.5305835404946</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Top</t>
+          <t>Set</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Shipped - Picked Up</t>
+          <t>Shipped - Delivered to Buyer</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>479.0869565217391</v>
+        <v>827.0427591391787</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Top</t>
+          <t>Set</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Shipped - Rejected by Buyer</t>
+          <t>Shipped - Lost in Transit</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>407.5</v>
+        <v>499.5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Top</t>
+          <t>Set</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Shipped - Returned to Seller</t>
+          <t>Shipped - Out for Delivery</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>511.6991869918699</v>
+        <v>908.1052631578947</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>Set</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Shipped - Picked Up</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>846.3226600985222</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Set</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Shipped - Rejected by Buyer</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>748.6666666666666</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Set</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Shipped - Returned to Seller</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>824.475816993464</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Set</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Shipped - Returning to Seller</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>875.8356164383562</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Set</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Shipping</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
           <t>Top</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>535.2548854041013</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>543.3272727272728</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Pending - Waiting for Pick Up</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>530.2105263157895</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Shipped</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>534.187806587246</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Shipped - Delivered to Buyer</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>494.1322916666667</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Shipped - Out for Delivery</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>503.6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Shipped - Picked Up</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>479.0869565217391</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Shipped - Rejected by Buyer</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>407.5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Shipped - Returned to Seller</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>511.6991869918699</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>Shipped - Returning to Seller</t>
         </is>
       </c>
-      <c r="C42" t="n">
+      <c r="C56" t="n">
         <v>577</v>
       </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Shipping</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
